--- a/Datos/Database by set/Set with text box/Xlsx sets/Commander 2017 Oversized (OC17).xlsx
+++ b/Datos/Database by set/Set with text box/Xlsx sets/Commander 2017 Oversized (OC17).xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A27"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,182 +444,28 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Arahbo, Roar of the World</t>
+          <t>('Arahbo, Roar of the World', ['{3}{G}{W}', 'Legendary Creature — Cat Avatar', 'Eminence — At the beginning of combat on your turn, if Arahbo, Roar of the World is in the command zone or on the battlefield, another target Cat you control gets +3/+3 until end of turn.', 'Whenever another Cat you control attacks, you may pay {1}{G}{W}. If you do, it gains trample and gets +X/+X until end of turn, where X is its power.', '5/5'])</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>{3}{G}{W}</t>
+          <t>('Edgar Markov', ['{3}{R}{W}{B}', 'Legendary Creature — Vampire Knight', 'Eminence — Whenever you cast another Vampire spell, if Edgar Markov is in the command zone or on the battlefield, create a 1/1 black Vampire creature token.', 'First strike, haste', 'Whenever Edgar Markov attacks, put a +1/+1 counter on each Vampire you control.', '4/4'])</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Legendary Creature — Cat Avatar</t>
+          <t>('Inalla, Archmage Ritualist', ['{2}{U}{B}{R}', 'Legendary Creature — Human Wizard', 'Eminence — Whenever another nontoken Wizard enters the battlefield under your control, if Inalla, Archmage Ritualist is in the command zone or on the battlefield, you may pay {1}. If you do, create a token that’s a copy of that Wizard. The token gains haste. Exile it at the beginning of the next end step.', 'Tap five untapped Wizards you control: Target player loses 7 life.', '4/5'])</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Eminence — At the beginning of combat on your turn, if Arahbo, Roar of the World is in the command zone or on the battlefield, another target Cat you control gets +3/+3 until end of turn.</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Whenever another Cat you control attacks, you may pay {1}{G}{W}. If you do, it gains trample and gets +X/+X until end of turn, where X is its power.</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>5/5</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Edgar Markov</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>{3}{R}{W}{B}</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Legendary Creature — Vampire Knight</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Eminence — Whenever you cast another Vampire spell, if Edgar Markov is in the command zone or on the battlefield, create a 1/1 black Vampire creature token.</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>First strike, haste</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Whenever Edgar Markov attacks, put a +1/+1 counter on each Vampire you control.</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4/4</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Inalla, Archmage Ritualist</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>{2}{U}{B}{R}</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Legendary Creature — Human Wizard</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Eminence — Whenever another nontoken Wizard enters the battlefield under your control, if Inalla, Archmage Ritualist is in the command zone or on the battlefield, you may pay {1}. If you do, create a token that’s a copy of that Wizard. The token gains haste. Exile it at the beginning of the next end step.</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Tap five untapped Wizards you control: Target player loses 7 life.</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4/5</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>The Ur-Dragon</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>{4}{W}{U}{B}{R}{G}</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Legendary Creature — Dragon Avatar</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Eminence — As long as The Ur-Dragon is in the command zone or on the battlefield, other Dragon spells you cast cost {1} less to cast.</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Flying</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Whenever one or more Dragons you control attack, draw that many cards, then you may put a permanent card from your hand onto the battlefield.</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>10/10</t>
+          <t>('The Ur-Dragon', ['{4}{W}{U}{B}{R}{G}', 'Legendary Creature — Dragon Avatar', 'Eminence — As long as The Ur-Dragon is in the command zone or on the battlefield, other Dragon spells you cast cost {1} less to cast.', 'Flying', 'Whenever one or more Dragons you control attack, draw that many cards, then you may put a permanent card from your hand onto the battlefield.', '10/10'])</t>
         </is>
       </c>
     </row>
